--- a/flask-api/utils/food.xlsx
+++ b/flask-api/utils/food.xlsx
@@ -20,36 +20,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">rice</t>
   </si>
   <si>
-    <t xml:space="preserve">hambuger</t>
+    <t xml:space="preserve">soup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">friedfish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">egg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">salas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">friedchicken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hotdog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hamburger</t>
   </si>
   <si>
     <t xml:space="preserve">pizza</t>
   </si>
   <si>
-    <t xml:space="preserve">sandwiches</t>
+    <t xml:space="preserve">pessi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sandwich</t>
   </si>
   <si>
     <t xml:space="preserve">ramen</t>
   </si>
   <si>
-    <t xml:space="preserve">spagetti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">friedfish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">friedchicken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hotdog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soup</t>
+    <t xml:space="preserve">noob</t>
   </si>
 </sst>
 </file>
@@ -64,6 +73,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -123,8 +133,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -145,92 +159,116 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="M17" activeCellId="0" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="n">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="B6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="n">
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="B7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="n">
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="B8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="n">
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="B9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="n">
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="B10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="n">
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/flask-api/utils/food.xlsx
+++ b/flask-api/utils/food.xlsx
@@ -162,17 +162,17 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M17" activeCellId="0" sqref="M17"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -180,7 +180,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>2</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -188,7 +188,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>3</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -196,7 +196,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>4</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -204,7 +204,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>11</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -212,7 +212,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>5</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -220,7 +220,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>6</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -228,7 +228,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>7</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -236,7 +236,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>8</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -244,7 +244,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>9</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -252,7 +252,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -260,7 +260,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>12</v>
+        <v>436</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -268,7 +268,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>13</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
